--- a/Test Cases list.xlsx
+++ b/Test Cases list.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Topic_Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Form KMS\Git\ClientServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9345" tabRatio="917" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9345" tabRatio="917" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
     <sheet name="Guide" sheetId="3" r:id="rId2"/>
     <sheet name="Test Cases Checklist" sheetId="9" r:id="rId3"/>
-    <sheet name="Provide Feedback_An_Dung" sheetId="11" r:id="rId4"/>
+    <sheet name="Send Message" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Test Cases Checklist'!$A$3:$D$6</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>Version</t>
   </si>
@@ -158,15 +158,9 @@
     <t>2.0</t>
   </si>
   <si>
-    <t>GUI Provide Feedback To Myself With Short Feedback- DUNG PHAM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Test Cases: Send Message </t>
   </si>
   <si>
-    <t>I. Send mes</t>
-  </si>
-  <si>
     <t>I. Send message</t>
   </si>
   <si>
@@ -192,12 +186,51 @@
   </si>
   <si>
     <t>Not Test</t>
+  </si>
+  <si>
+    <t>Open server side application</t>
+  </si>
+  <si>
+    <t>Open client side application</t>
+  </si>
+  <si>
+    <t>Click "Connect" button</t>
+  </si>
+  <si>
+    <t>Enter IP server for cliend side</t>
+  </si>
+  <si>
+    <t>Enter invalid IP server for cliend side</t>
+  </si>
+  <si>
+    <t>Click "OK" button</t>
+  </si>
+  <si>
+    <t>Click "Disconnect" button</t>
+  </si>
+  <si>
+    <t>Input message on server side</t>
+  </si>
+  <si>
+    <t>Click "Send" button on server side</t>
+  </si>
+  <si>
+    <t>Click "Send" button on client side</t>
+  </si>
+  <si>
+    <t>Input message on client side</t>
+  </si>
+  <si>
+    <t>Click "Connect" button on client side</t>
+  </si>
+  <si>
+    <t>TC-004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -345,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -449,29 +482,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom style="thin">
@@ -563,7 +574,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -584,9 +595,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -600,61 +608,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -663,17 +635,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -719,73 +682,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -795,28 +704,109 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1118,7 +1108,7 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1133,16 +1123,16 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="41" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="47" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1151,7 +1141,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="47" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1169,125 +1159,125 @@
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="48" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="80"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="80"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="80"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="80"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="80"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="80"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="80"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="80"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="80"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="80"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="80"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="80"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="80"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="80"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="80"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1305,152 +1295,152 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" style="42" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" style="42" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="1" width="38.5703125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" style="26" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="84"/>
+      <c r="B1" s="57"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="28" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="28" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="28" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="28" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="28" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="28" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="50" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1468,833 +1458,833 @@
   </sheetPr>
   <dimension ref="A1:H237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="11" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="10" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="10" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="98.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="56" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="98.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="10" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="11"/>
+    <col min="9" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="88" t="s">
+      <c r="H1" s="52" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
+        <v>1</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="63"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="47">
-        <v>1</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="48" t="s">
+      <c r="E3" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <v>2</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="51"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="41" t="s">
+      <c r="E4" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="35"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="43" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="47">
-        <v>2</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="48" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>3</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="32" t="s">
         <v>49</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="60" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="47">
-        <v>3</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="51"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="60" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="47">
-        <v>5</v>
-      </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="48" t="s">
-        <v>51</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="60" t="s">
+      <c r="E6" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="43" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E7" s="54"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E8" s="54"/>
+      <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E9" s="54"/>
+      <c r="E9" s="38"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E10" s="54"/>
+      <c r="E10" s="38"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="54"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="54"/>
+      <c r="E12" s="38"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E13" s="54"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="54"/>
+      <c r="E14" s="38"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="54"/>
+      <c r="E15" s="38"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="54"/>
+      <c r="E16" s="38"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="54"/>
+      <c r="E17" s="38"/>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="54"/>
+      <c r="E18" s="38"/>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="54"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="54"/>
+      <c r="E20" s="38"/>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="54"/>
+      <c r="E21" s="38"/>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="54"/>
+      <c r="E22" s="38"/>
     </row>
     <row r="23" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="54"/>
+      <c r="E23" s="38"/>
     </row>
     <row r="24" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E24" s="54"/>
+      <c r="E24" s="38"/>
     </row>
     <row r="25" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E25" s="54"/>
+      <c r="E25" s="38"/>
     </row>
     <row r="26" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E26" s="54"/>
+      <c r="E26" s="38"/>
     </row>
     <row r="27" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E27" s="54"/>
+      <c r="E27" s="38"/>
     </row>
     <row r="28" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E28" s="54"/>
+      <c r="E28" s="38"/>
     </row>
     <row r="29" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E29" s="54"/>
+      <c r="E29" s="38"/>
     </row>
     <row r="30" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E30" s="54"/>
+      <c r="E30" s="38"/>
     </row>
     <row r="31" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E31" s="54"/>
+      <c r="E31" s="38"/>
     </row>
     <row r="32" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E32" s="54"/>
+      <c r="E32" s="38"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="54"/>
+      <c r="E33" s="38"/>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="54"/>
+      <c r="E34" s="38"/>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E35" s="54"/>
+      <c r="E35" s="38"/>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="54"/>
+      <c r="E36" s="38"/>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E37" s="54"/>
+      <c r="E37" s="38"/>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E38" s="54"/>
+      <c r="E38" s="38"/>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E39" s="54"/>
+      <c r="E39" s="38"/>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E40" s="54"/>
+      <c r="E40" s="38"/>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E41" s="54"/>
+      <c r="E41" s="38"/>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E42" s="54"/>
+      <c r="E42" s="38"/>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E43" s="54"/>
+      <c r="E43" s="38"/>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E44" s="54"/>
+      <c r="E44" s="38"/>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E45" s="54"/>
+      <c r="E45" s="38"/>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E46" s="54"/>
+      <c r="E46" s="38"/>
     </row>
     <row r="47" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E47" s="54"/>
+      <c r="E47" s="38"/>
     </row>
     <row r="48" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E48" s="54"/>
+      <c r="E48" s="38"/>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E49" s="54"/>
+      <c r="E49" s="38"/>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E50" s="54"/>
+      <c r="E50" s="38"/>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E51" s="54"/>
+      <c r="E51" s="38"/>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E52" s="54"/>
+      <c r="E52" s="38"/>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E53" s="54"/>
+      <c r="E53" s="38"/>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E54" s="54"/>
+      <c r="E54" s="38"/>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E55" s="54"/>
+      <c r="E55" s="38"/>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E56" s="54"/>
+      <c r="E56" s="38"/>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E57" s="54"/>
+      <c r="E57" s="38"/>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E58" s="54"/>
+      <c r="E58" s="38"/>
     </row>
     <row r="59" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E59" s="54"/>
+      <c r="E59" s="38"/>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="54"/>
+      <c r="E60" s="38"/>
     </row>
     <row r="61" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E61" s="54"/>
+      <c r="E61" s="38"/>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E62" s="54"/>
+      <c r="E62" s="38"/>
     </row>
     <row r="63" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E63" s="54"/>
+      <c r="E63" s="38"/>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E64" s="54"/>
+      <c r="E64" s="38"/>
     </row>
     <row r="65" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="54"/>
+      <c r="E65" s="38"/>
     </row>
     <row r="66" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E66" s="54"/>
+      <c r="E66" s="38"/>
     </row>
     <row r="67" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E67" s="54"/>
+      <c r="E67" s="38"/>
     </row>
     <row r="68" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E68" s="54"/>
+      <c r="E68" s="38"/>
     </row>
     <row r="69" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E69" s="54"/>
+      <c r="E69" s="38"/>
     </row>
     <row r="70" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E70" s="54"/>
+      <c r="E70" s="38"/>
     </row>
     <row r="71" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E71" s="54"/>
+      <c r="E71" s="38"/>
     </row>
     <row r="72" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E72" s="54"/>
+      <c r="E72" s="38"/>
     </row>
     <row r="73" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E73" s="54"/>
+      <c r="E73" s="38"/>
     </row>
     <row r="74" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E74" s="54"/>
+      <c r="E74" s="38"/>
     </row>
     <row r="75" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E75" s="54"/>
+      <c r="E75" s="38"/>
     </row>
     <row r="76" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E76" s="54"/>
+      <c r="E76" s="38"/>
     </row>
     <row r="77" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E77" s="54"/>
+      <c r="E77" s="38"/>
     </row>
     <row r="78" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E78" s="54"/>
+      <c r="E78" s="38"/>
     </row>
     <row r="79" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E79" s="54"/>
+      <c r="E79" s="38"/>
     </row>
     <row r="80" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E80" s="54"/>
+      <c r="E80" s="38"/>
     </row>
     <row r="81" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E81" s="54"/>
+      <c r="E81" s="38"/>
     </row>
     <row r="82" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E82" s="54"/>
+      <c r="E82" s="38"/>
     </row>
     <row r="83" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E83" s="54"/>
+      <c r="E83" s="38"/>
     </row>
     <row r="84" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E84" s="54"/>
+      <c r="E84" s="38"/>
     </row>
     <row r="85" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E85" s="54"/>
+      <c r="E85" s="38"/>
     </row>
     <row r="86" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E86" s="54"/>
+      <c r="E86" s="38"/>
     </row>
     <row r="87" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E87" s="54"/>
+      <c r="E87" s="38"/>
     </row>
     <row r="88" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E88" s="54"/>
+      <c r="E88" s="38"/>
     </row>
     <row r="89" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E89" s="54"/>
+      <c r="E89" s="38"/>
     </row>
     <row r="90" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E90" s="54"/>
+      <c r="E90" s="38"/>
     </row>
     <row r="91" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E91" s="54"/>
+      <c r="E91" s="38"/>
     </row>
     <row r="92" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E92" s="54"/>
+      <c r="E92" s="38"/>
     </row>
     <row r="93" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E93" s="54"/>
+      <c r="E93" s="38"/>
     </row>
     <row r="94" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E94" s="54"/>
+      <c r="E94" s="38"/>
     </row>
     <row r="95" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E95" s="54"/>
+      <c r="E95" s="38"/>
     </row>
     <row r="96" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E96" s="54"/>
+      <c r="E96" s="38"/>
     </row>
     <row r="97" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E97" s="54"/>
+      <c r="E97" s="38"/>
     </row>
     <row r="98" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E98" s="54"/>
+      <c r="E98" s="38"/>
     </row>
     <row r="99" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E99" s="54"/>
+      <c r="E99" s="38"/>
     </row>
     <row r="100" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E100" s="54"/>
+      <c r="E100" s="38"/>
     </row>
     <row r="101" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E101" s="54"/>
+      <c r="E101" s="38"/>
     </row>
     <row r="102" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E102" s="54"/>
+      <c r="E102" s="38"/>
     </row>
     <row r="103" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E103" s="54"/>
+      <c r="E103" s="38"/>
     </row>
     <row r="104" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E104" s="54"/>
+      <c r="E104" s="38"/>
     </row>
     <row r="105" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E105" s="54"/>
+      <c r="E105" s="38"/>
     </row>
     <row r="106" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E106" s="54"/>
+      <c r="E106" s="38"/>
     </row>
     <row r="107" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E107" s="54"/>
+      <c r="E107" s="38"/>
     </row>
     <row r="108" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E108" s="54"/>
+      <c r="E108" s="38"/>
     </row>
     <row r="109" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E109" s="54"/>
+      <c r="E109" s="38"/>
     </row>
     <row r="110" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E110" s="54"/>
+      <c r="E110" s="38"/>
     </row>
     <row r="111" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E111" s="54"/>
+      <c r="E111" s="38"/>
     </row>
     <row r="112" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E112" s="54"/>
+      <c r="E112" s="38"/>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E113" s="54"/>
+      <c r="E113" s="38"/>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E114" s="54"/>
+      <c r="E114" s="38"/>
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E115" s="54"/>
+      <c r="E115" s="38"/>
     </row>
     <row r="116" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E116" s="54"/>
+      <c r="E116" s="38"/>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E117" s="54"/>
+      <c r="E117" s="38"/>
     </row>
     <row r="118" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E118" s="54"/>
+      <c r="E118" s="38"/>
     </row>
     <row r="119" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E119" s="54"/>
+      <c r="E119" s="38"/>
     </row>
     <row r="120" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E120" s="54"/>
+      <c r="E120" s="38"/>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E121" s="54"/>
+      <c r="E121" s="38"/>
     </row>
     <row r="122" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E122" s="54"/>
+      <c r="E122" s="38"/>
     </row>
     <row r="123" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E123" s="54"/>
+      <c r="E123" s="38"/>
     </row>
     <row r="124" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E124" s="54"/>
+      <c r="E124" s="38"/>
     </row>
     <row r="125" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E125" s="54"/>
+      <c r="E125" s="38"/>
     </row>
     <row r="126" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E126" s="54"/>
+      <c r="E126" s="38"/>
     </row>
     <row r="127" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E127" s="54"/>
+      <c r="E127" s="38"/>
     </row>
     <row r="128" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E128" s="54"/>
+      <c r="E128" s="38"/>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E129" s="54"/>
+      <c r="E129" s="38"/>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E130" s="54"/>
+      <c r="E130" s="38"/>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E131" s="54"/>
+      <c r="E131" s="38"/>
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E132" s="54"/>
+      <c r="E132" s="38"/>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E133" s="54"/>
+      <c r="E133" s="38"/>
     </row>
     <row r="134" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E134" s="54"/>
+      <c r="E134" s="38"/>
     </row>
     <row r="135" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E135" s="54"/>
+      <c r="E135" s="38"/>
     </row>
     <row r="136" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E136" s="54"/>
+      <c r="E136" s="38"/>
     </row>
     <row r="137" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E137" s="54"/>
+      <c r="E137" s="38"/>
     </row>
     <row r="138" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E138" s="54"/>
+      <c r="E138" s="38"/>
     </row>
     <row r="139" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E139" s="54"/>
+      <c r="E139" s="38"/>
     </row>
     <row r="140" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E140" s="54"/>
+      <c r="E140" s="38"/>
     </row>
     <row r="141" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E141" s="54"/>
+      <c r="E141" s="38"/>
     </row>
     <row r="142" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E142" s="54"/>
+      <c r="E142" s="38"/>
     </row>
     <row r="143" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E143" s="54"/>
+      <c r="E143" s="38"/>
     </row>
     <row r="144" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E144" s="54"/>
+      <c r="E144" s="38"/>
     </row>
     <row r="145" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E145" s="54"/>
+      <c r="E145" s="38"/>
     </row>
     <row r="146" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E146" s="54"/>
+      <c r="E146" s="38"/>
     </row>
     <row r="147" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E147" s="54"/>
+      <c r="E147" s="38"/>
     </row>
     <row r="148" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E148" s="54"/>
+      <c r="E148" s="38"/>
     </row>
     <row r="149" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E149" s="54"/>
+      <c r="E149" s="38"/>
     </row>
     <row r="150" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E150" s="54"/>
+      <c r="E150" s="38"/>
     </row>
     <row r="151" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E151" s="54"/>
+      <c r="E151" s="38"/>
     </row>
     <row r="152" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E152" s="54"/>
+      <c r="E152" s="38"/>
     </row>
     <row r="153" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E153" s="54"/>
+      <c r="E153" s="38"/>
     </row>
     <row r="154" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E154" s="54"/>
+      <c r="E154" s="38"/>
     </row>
     <row r="155" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E155" s="54"/>
+      <c r="E155" s="38"/>
     </row>
     <row r="156" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E156" s="54"/>
+      <c r="E156" s="38"/>
     </row>
     <row r="157" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E157" s="54"/>
+      <c r="E157" s="38"/>
     </row>
     <row r="158" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E158" s="54"/>
+      <c r="E158" s="38"/>
     </row>
     <row r="159" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E159" s="54"/>
+      <c r="E159" s="38"/>
     </row>
     <row r="160" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E160" s="54"/>
+      <c r="E160" s="38"/>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E161" s="54"/>
+      <c r="E161" s="38"/>
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E162" s="54"/>
+      <c r="E162" s="38"/>
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E163" s="54"/>
+      <c r="E163" s="38"/>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E164" s="54"/>
+      <c r="E164" s="38"/>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E165" s="54"/>
+      <c r="E165" s="38"/>
     </row>
     <row r="166" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E166" s="54"/>
+      <c r="E166" s="38"/>
     </row>
     <row r="167" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E167" s="54"/>
+      <c r="E167" s="38"/>
     </row>
     <row r="168" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E168" s="54"/>
+      <c r="E168" s="38"/>
     </row>
     <row r="169" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E169" s="54"/>
+      <c r="E169" s="38"/>
     </row>
     <row r="170" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E170" s="54"/>
+      <c r="E170" s="38"/>
     </row>
     <row r="171" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E171" s="54"/>
+      <c r="E171" s="38"/>
     </row>
     <row r="172" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E172" s="54"/>
+      <c r="E172" s="38"/>
     </row>
     <row r="173" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E173" s="54"/>
+      <c r="E173" s="38"/>
     </row>
     <row r="174" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E174" s="54"/>
+      <c r="E174" s="38"/>
     </row>
     <row r="175" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E175" s="54"/>
+      <c r="E175" s="38"/>
     </row>
     <row r="176" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E176" s="54"/>
+      <c r="E176" s="38"/>
     </row>
     <row r="177" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E177" s="54"/>
+      <c r="E177" s="38"/>
     </row>
     <row r="178" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E178" s="54"/>
+      <c r="E178" s="38"/>
     </row>
     <row r="179" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E179" s="54"/>
+      <c r="E179" s="38"/>
     </row>
     <row r="180" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E180" s="54"/>
+      <c r="E180" s="38"/>
     </row>
     <row r="181" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E181" s="54"/>
+      <c r="E181" s="38"/>
     </row>
     <row r="182" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E182" s="54"/>
+      <c r="E182" s="38"/>
     </row>
     <row r="183" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E183" s="54"/>
+      <c r="E183" s="38"/>
     </row>
     <row r="184" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E184" s="54"/>
+      <c r="E184" s="38"/>
     </row>
     <row r="185" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E185" s="54"/>
+      <c r="E185" s="38"/>
     </row>
     <row r="186" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E186" s="54"/>
+      <c r="E186" s="38"/>
     </row>
     <row r="187" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E187" s="54"/>
+      <c r="E187" s="38"/>
     </row>
     <row r="188" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E188" s="54"/>
+      <c r="E188" s="38"/>
     </row>
     <row r="189" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E189" s="54"/>
+      <c r="E189" s="38"/>
     </row>
     <row r="190" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E190" s="54"/>
+      <c r="E190" s="38"/>
     </row>
     <row r="191" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E191" s="54"/>
+      <c r="E191" s="38"/>
     </row>
     <row r="192" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E192" s="54"/>
+      <c r="E192" s="38"/>
     </row>
     <row r="193" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E193" s="54"/>
+      <c r="E193" s="38"/>
     </row>
     <row r="194" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E194" s="54"/>
+      <c r="E194" s="38"/>
     </row>
     <row r="195" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E195" s="54"/>
+      <c r="E195" s="38"/>
     </row>
     <row r="196" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E196" s="54"/>
+      <c r="E196" s="38"/>
     </row>
     <row r="197" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E197" s="54"/>
+      <c r="E197" s="38"/>
     </row>
     <row r="198" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E198" s="54"/>
+      <c r="E198" s="38"/>
     </row>
     <row r="199" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E199" s="54"/>
+      <c r="E199" s="38"/>
     </row>
     <row r="200" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E200" s="54"/>
+      <c r="E200" s="38"/>
     </row>
     <row r="201" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E201" s="54"/>
+      <c r="E201" s="38"/>
     </row>
     <row r="202" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E202" s="54"/>
+      <c r="E202" s="38"/>
     </row>
     <row r="203" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E203" s="54"/>
+      <c r="E203" s="38"/>
     </row>
     <row r="204" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E204" s="54"/>
+      <c r="E204" s="38"/>
     </row>
     <row r="205" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E205" s="54"/>
+      <c r="E205" s="38"/>
     </row>
     <row r="206" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E206" s="54"/>
+      <c r="E206" s="38"/>
     </row>
     <row r="207" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E207" s="54"/>
+      <c r="E207" s="38"/>
     </row>
     <row r="208" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E208" s="54"/>
+      <c r="E208" s="38"/>
     </row>
     <row r="209" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E209" s="54"/>
+      <c r="E209" s="38"/>
     </row>
     <row r="210" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E210" s="54"/>
+      <c r="E210" s="38"/>
     </row>
     <row r="211" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E211" s="54"/>
+      <c r="E211" s="38"/>
     </row>
     <row r="212" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E212" s="54"/>
+      <c r="E212" s="38"/>
     </row>
     <row r="213" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E213" s="54"/>
+      <c r="E213" s="38"/>
     </row>
     <row r="214" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E214" s="54"/>
+      <c r="E214" s="38"/>
     </row>
     <row r="215" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E215" s="54"/>
+      <c r="E215" s="38"/>
     </row>
     <row r="216" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E216" s="54"/>
+      <c r="E216" s="38"/>
     </row>
     <row r="217" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E217" s="54"/>
+      <c r="E217" s="38"/>
     </row>
     <row r="218" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E218" s="54"/>
+      <c r="E218" s="38"/>
     </row>
     <row r="219" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E219" s="54"/>
+      <c r="E219" s="38"/>
     </row>
     <row r="220" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E220" s="54"/>
+      <c r="E220" s="38"/>
     </row>
     <row r="221" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E221" s="54"/>
+      <c r="E221" s="38"/>
     </row>
     <row r="222" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E222" s="54"/>
+      <c r="E222" s="38"/>
     </row>
     <row r="223" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E223" s="54"/>
+      <c r="E223" s="38"/>
     </row>
     <row r="224" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E224" s="54"/>
+      <c r="E224" s="38"/>
     </row>
     <row r="225" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E225" s="54"/>
+      <c r="E225" s="38"/>
     </row>
     <row r="226" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E226" s="54"/>
+      <c r="E226" s="38"/>
     </row>
     <row r="227" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E227" s="54"/>
+      <c r="E227" s="38"/>
     </row>
     <row r="228" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E228" s="54"/>
+      <c r="E228" s="38"/>
     </row>
     <row r="229" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E229" s="54"/>
+      <c r="E229" s="38"/>
     </row>
     <row r="230" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E230" s="54"/>
+      <c r="E230" s="38"/>
     </row>
     <row r="231" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E231" s="54"/>
+      <c r="E231" s="38"/>
     </row>
     <row r="232" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E232" s="54"/>
+      <c r="E232" s="38"/>
     </row>
     <row r="233" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E233" s="54"/>
+      <c r="E233" s="38"/>
     </row>
     <row r="234" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E234" s="54"/>
+      <c r="E234" s="38"/>
     </row>
     <row r="235" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E235" s="54"/>
+      <c r="E235" s="38"/>
     </row>
     <row r="236" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E236" s="54"/>
+      <c r="E236" s="38"/>
     </row>
     <row r="237" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E237" s="55"/>
+      <c r="E237" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2312,316 +2302,546 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="15" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="14"/>
-    <col min="7" max="7" width="49.85546875" style="23" customWidth="1"/>
-    <col min="8" max="8" width="17" style="31" customWidth="1"/>
-    <col min="9" max="9" width="63.42578125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="67" style="11" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="14" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="4.140625" style="14" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="13"/>
+    <col min="7" max="7" width="49.85546875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="17" style="20" customWidth="1"/>
+    <col min="9" max="9" width="63.42578125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="67" style="10" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="16" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="13" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="54" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="67">
+        <v>1</v>
+      </c>
+      <c r="B3" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
+      <c r="C3" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="44">
+        <v>1</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="44"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="67">
-        <v>1</v>
-      </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="70"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="68"/>
       <c r="E4" s="68"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="57"/>
-    </row>
-    <row r="5" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="72"/>
+      <c r="F4" s="44">
+        <v>2</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="71"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="21"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="45"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="44">
+        <v>3</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="71"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="73"/>
-    </row>
-    <row r="7" spans="1:12" ht="305.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="72">
+      <c r="A6" s="45"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="44">
+        <v>4</v>
+      </c>
+      <c r="G6" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="71"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="21"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="61">
         <v>2</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="57"/>
+      <c r="B7" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="44">
+        <v>1</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="44"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="57"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="44">
+        <v>2</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="44"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="74"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="57"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="44">
+        <v>3</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="44"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="57"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="44">
+        <v>4</v>
+      </c>
+      <c r="G10" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="44"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="57"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="44">
+        <v>5</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="44"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="57"/>
+      <c r="A12" s="21">
+        <v>3</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="78" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="44">
+        <v>1</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="44"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
-        <v>3</v>
-      </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="57"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="44">
+        <v>2</v>
+      </c>
+      <c r="G13" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="44"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="19"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="64"/>
       <c r="E14" s="64"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="57"/>
+      <c r="F14" s="44">
+        <v>3</v>
+      </c>
+      <c r="G14" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="44"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="64"/>
       <c r="E15" s="64"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="57"/>
-    </row>
-    <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="57"/>
+      <c r="F15" s="44">
+        <v>4</v>
+      </c>
+      <c r="G15" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="44"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="44">
+        <v>5</v>
+      </c>
+      <c r="G16" s="70" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="72"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="44"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="44">
+        <v>6</v>
+      </c>
+      <c r="G17" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="72"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="44"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="44">
+        <v>1</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="72"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="44"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="44">
+        <v>2</v>
+      </c>
+      <c r="G19" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="72"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="44"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="44">
+        <v>3</v>
+      </c>
+      <c r="G20" s="70" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="72"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="44"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="44">
+        <v>4</v>
+      </c>
+      <c r="G21" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="72"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="44"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="44">
+        <v>5</v>
+      </c>
+      <c r="G22" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="72"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="44"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="44">
+        <v>6</v>
+      </c>
+      <c r="G23" s="70" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="72"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="44"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="44">
+        <v>7</v>
+      </c>
+      <c r="G24" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="72"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="44"/>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="21"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="44">
+        <v>8</v>
+      </c>
+      <c r="G25" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="72"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="D7:D12"/>
-    <mergeCell ref="E7:E12"/>
+  <mergeCells count="19">
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="E12:E17"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="E18:E25"/>
+    <mergeCell ref="B18:B25"/>
     <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:K16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K16:K25">
       <formula1>"Pass,Fail,Not Start"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L25">
       <formula1>"Passed,Failed,Not Test,Not Completed, N/A, Blocked"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Test Cases list.xlsx
+++ b/Test Cases list.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Form KMS\Git\ClientServer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Topic_Research\Git\ClientServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="86">
   <si>
     <t>Version</t>
   </si>
@@ -152,9 +152,6 @@
     <t>.No</t>
   </si>
   <si>
-    <t>For Date field validation</t>
-  </si>
-  <si>
     <t>2.0</t>
   </si>
   <si>
@@ -225,12 +222,80 @@
   </si>
   <si>
     <t>TC-004</t>
+  </si>
+  <si>
+    <t>Innitial version</t>
+  </si>
+  <si>
+    <t>Server run and display ip address.</t>
+  </si>
+  <si>
+    <t>Client run</t>
+  </si>
+  <si>
+    <t>Ip server field display entered text</t>
+  </si>
+  <si>
+    <t>ip: "192.168.85.207"</t>
+  </si>
+  <si>
+    <t>ip: ""
+ip: "192.168.85"</t>
+  </si>
+  <si>
+    <t>Client side display message "IP address is invalid or the others side is not accessable!"</t>
+  </si>
+  <si>
+    <t>Message box close and return client side</t>
+  </si>
+  <si>
+    <t>Client display "Connecting with you" on chat screen
+Server display "New agent received" on chat screen</t>
+  </si>
+  <si>
+    <t>Server display "Agent disconnected !" on chat screen</t>
+  </si>
+  <si>
+    <t>Message: "Hi guy"</t>
+  </si>
+  <si>
+    <t>Message field on server side display message from client side</t>
+  </si>
+  <si>
+    <t>Message field on client side display entered text</t>
+  </si>
+  <si>
+    <t>Message field on server side display entered text</t>
+  </si>
+  <si>
+    <t>Message: "How are you"</t>
+  </si>
+  <si>
+    <t>Message field on client side display message from server side</t>
+  </si>
+  <si>
+    <t>computer have connected to network</t>
+  </si>
+  <si>
+    <t>Client connect to server by ip server successfully</t>
+  </si>
+  <si>
+    <t>Client connect to server by ip serverun successfully</t>
+  </si>
+  <si>
+    <t>Client disconnect to server and after that connect again</t>
+  </si>
+  <si>
+    <t>Send message between client and server</t>
+  </si>
+  <si>
+    <t>Client send message to sever and server does.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
@@ -574,7 +639,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -721,6 +786,33 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -737,76 +829,43 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1093,12 +1152,12 @@
   <dimension ref="A3:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
@@ -1108,7 +1167,7 @@
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1127,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1170,9 +1229,15 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
+      <c r="A12" s="46">
+        <v>42466</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="46"/>
@@ -1301,14 +1366,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="66"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
@@ -1459,7 +1524,7 @@
   <dimension ref="A1:H237"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,16 +1567,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60"/>
+      <c r="A2" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
@@ -1519,13 +1584,13 @@
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="E3" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="34"/>
@@ -1539,13 +1604,13 @@
       </c>
       <c r="B4" s="33"/>
       <c r="C4" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F4" s="35"/>
       <c r="G4" s="34"/>
@@ -1559,13 +1624,13 @@
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="42" t="s">
         <v>50</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>51</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="34"/>
@@ -1579,13 +1644,13 @@
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="34"/>
@@ -2305,7 +2370,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D17"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2317,7 +2382,7 @@
     <col min="5" max="5" width="22.7109375" style="15" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="13"/>
     <col min="7" max="7" width="49.85546875" style="17" customWidth="1"/>
-    <col min="8" max="8" width="17" style="20" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="63.42578125" style="15" customWidth="1"/>
     <col min="10" max="10" width="67" style="10" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" style="16" customWidth="1"/>
@@ -2332,31 +2397,31 @@
       <c r="B1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="82" t="s">
+      <c r="E1" s="62" t="s">
         <v>11</v>
       </c>
       <c r="F1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="61" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="84" t="s">
+      <c r="K1" s="64" t="s">
         <v>26</v>
       </c>
       <c r="L1" s="54" t="s">
@@ -2364,459 +2429,590 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="77">
+        <v>1</v>
+      </c>
+      <c r="B3" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="67">
-        <v>1</v>
-      </c>
-      <c r="B3" s="77" t="s">
+      <c r="C3" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="D3" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>80</v>
+      </c>
       <c r="F3" s="44">
         <v>1</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" s="18"/>
-      <c r="I3" s="23"/>
+      <c r="I3" s="23" t="s">
+        <v>65</v>
+      </c>
       <c r="J3" s="23"/>
       <c r="K3" s="22"/>
-      <c r="L3" s="44"/>
+      <c r="L3" s="44" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="67"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
       <c r="F4" s="44">
         <v>2</v>
       </c>
-      <c r="G4" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="22"/>
+      <c r="G4" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="59"/>
+      <c r="I4" s="22" t="s">
+        <v>66</v>
+      </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
-      <c r="L4" s="21"/>
+      <c r="L4" s="56" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
       <c r="F5" s="44">
         <v>3</v>
       </c>
-      <c r="G5" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="22"/>
+      <c r="G5" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
-      <c r="L5" s="21"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L5" s="56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
       <c r="F6" s="44">
         <v>4</v>
       </c>
-      <c r="G6" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="71"/>
-      <c r="I6" s="22"/>
+      <c r="G6" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="59"/>
+      <c r="I6" s="22" t="s">
+        <v>72</v>
+      </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="21"/>
+      <c r="L6" s="56" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="61">
+      <c r="A7" s="80">
         <v>2</v>
       </c>
-      <c r="B7" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="73" t="s">
+      <c r="B7" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
+      <c r="C7" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="79" t="s">
+        <v>80</v>
+      </c>
       <c r="F7" s="44">
         <v>1</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" s="18"/>
-      <c r="I7" s="22"/>
+      <c r="I7" s="57" t="s">
+        <v>65</v>
+      </c>
       <c r="J7" s="21"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="44"/>
+      <c r="L7" s="56" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
       <c r="F8" s="44">
         <v>2</v>
       </c>
-      <c r="G8" s="70" t="s">
-        <v>53</v>
+      <c r="G8" s="58" t="s">
+        <v>52</v>
       </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="22"/>
+      <c r="I8" s="22" t="s">
+        <v>66</v>
+      </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
-      <c r="L8" s="44"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
+      <c r="L8" s="56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="81"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="44">
         <v>3</v>
       </c>
-      <c r="G9" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="24"/>
+      <c r="G9" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>67</v>
+      </c>
       <c r="J9" s="24"/>
       <c r="K9" s="22"/>
-      <c r="L9" s="44"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
+      <c r="L9" s="56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="81"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
       <c r="F10" s="44">
         <v>4</v>
       </c>
-      <c r="G10" s="70" t="s">
-        <v>54</v>
+      <c r="G10" s="58" t="s">
+        <v>53</v>
       </c>
       <c r="H10" s="19"/>
-      <c r="I10" s="24"/>
+      <c r="I10" s="24" t="s">
+        <v>70</v>
+      </c>
       <c r="J10" s="24"/>
       <c r="K10" s="22"/>
-      <c r="L10" s="44"/>
+      <c r="L10" s="56" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
       <c r="F11" s="44">
         <v>5</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" s="19"/>
-      <c r="I11" s="24"/>
+      <c r="I11" s="24" t="s">
+        <v>71</v>
+      </c>
       <c r="J11" s="24"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="44"/>
+      <c r="L11" s="56" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>3</v>
       </c>
-      <c r="B12" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="78" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
+      <c r="B12" s="70" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="73" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>80</v>
+      </c>
       <c r="F12" s="44">
         <v>1</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="18"/>
-      <c r="I12" s="23"/>
+      <c r="I12" s="57" t="s">
+        <v>65</v>
+      </c>
       <c r="J12" s="23"/>
       <c r="K12" s="22"/>
-      <c r="L12" s="44"/>
+      <c r="L12" s="56" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="44">
         <v>2</v>
       </c>
-      <c r="G13" s="70" t="s">
-        <v>53</v>
+      <c r="G13" s="58" t="s">
+        <v>52</v>
       </c>
       <c r="H13" s="18"/>
-      <c r="I13" s="23"/>
+      <c r="I13" s="22" t="s">
+        <v>66</v>
+      </c>
       <c r="J13" s="23"/>
       <c r="K13" s="22"/>
-      <c r="L13" s="44"/>
+      <c r="L13" s="56" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="44">
         <v>3</v>
       </c>
-      <c r="G14" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="23"/>
+      <c r="G14" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="J14" s="23"/>
       <c r="K14" s="22"/>
-      <c r="L14" s="44"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L14" s="56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
       <c r="F15" s="44">
         <v>4</v>
       </c>
-      <c r="G15" s="70" t="s">
-        <v>54</v>
+      <c r="G15" s="58" t="s">
+        <v>53</v>
       </c>
       <c r="H15" s="18"/>
-      <c r="I15" s="23"/>
+      <c r="I15" s="22" t="s">
+        <v>72</v>
+      </c>
       <c r="J15" s="23"/>
       <c r="K15" s="22"/>
-      <c r="L15" s="44"/>
+      <c r="L15" s="56" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="44">
         <v>5</v>
       </c>
-      <c r="G16" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="H16" s="72"/>
-      <c r="I16" s="23"/>
+      <c r="G16" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="60"/>
+      <c r="I16" s="23" t="s">
+        <v>73</v>
+      </c>
       <c r="J16" s="23"/>
       <c r="K16" s="42"/>
-      <c r="L16" s="44"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="44">
         <v>6</v>
       </c>
-      <c r="G17" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="72"/>
-      <c r="I17" s="23"/>
+      <c r="G17" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="59"/>
+      <c r="I17" s="22" t="s">
+        <v>72</v>
+      </c>
       <c r="J17" s="23"/>
       <c r="K17" s="42"/>
-      <c r="L17" s="44"/>
+      <c r="L17" s="56" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
-      <c r="B18" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
+      <c r="B18" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>80</v>
+      </c>
       <c r="F18" s="44">
         <v>1</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="72"/>
-      <c r="I18" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="H18" s="60"/>
+      <c r="I18" s="57" t="s">
+        <v>65</v>
+      </c>
       <c r="J18" s="23"/>
       <c r="K18" s="42"/>
-      <c r="L18" s="44"/>
+      <c r="L18" s="56" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="44">
         <v>2</v>
       </c>
-      <c r="G19" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="72"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="60"/>
+      <c r="I19" s="22" t="s">
+        <v>66</v>
+      </c>
       <c r="J19" s="23"/>
       <c r="K19" s="42"/>
-      <c r="L19" s="44"/>
+      <c r="L19" s="56" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
       <c r="F20" s="44">
         <v>3</v>
       </c>
-      <c r="G20" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="72"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="J20" s="23"/>
       <c r="K20" s="42"/>
-      <c r="L20" s="44"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L20" s="56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
       <c r="F21" s="44">
         <v>4</v>
       </c>
-      <c r="G21" s="70" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="72"/>
-      <c r="I21" s="23"/>
+      <c r="G21" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="59"/>
+      <c r="I21" s="22" t="s">
+        <v>72</v>
+      </c>
       <c r="J21" s="23"/>
       <c r="K21" s="42"/>
-      <c r="L21" s="44"/>
+      <c r="L21" s="56" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
-      <c r="B22" s="75"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
       <c r="F22" s="44">
         <v>5</v>
       </c>
-      <c r="G22" s="70" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="72"/>
-      <c r="I22" s="23"/>
+      <c r="G22" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>76</v>
+      </c>
       <c r="J22" s="23"/>
       <c r="K22" s="42"/>
-      <c r="L22" s="44"/>
+      <c r="L22" s="56" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
       <c r="F23" s="44">
         <v>6</v>
       </c>
-      <c r="G23" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="72"/>
-      <c r="I23" s="23"/>
+      <c r="G23" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="60"/>
+      <c r="I23" s="23" t="s">
+        <v>75</v>
+      </c>
       <c r="J23" s="23"/>
       <c r="K23" s="42"/>
-      <c r="L23" s="44"/>
+      <c r="L23" s="56" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
       <c r="F24" s="44">
         <v>7</v>
       </c>
-      <c r="G24" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" s="72"/>
-      <c r="I24" s="23"/>
+      <c r="G24" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="57" t="s">
+        <v>77</v>
+      </c>
       <c r="J24" s="23"/>
       <c r="K24" s="42"/>
-      <c r="L24" s="44"/>
+      <c r="L24" s="56" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
       <c r="F25" s="44">
         <v>8</v>
       </c>
-      <c r="G25" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="72"/>
-      <c r="I25" s="23"/>
+      <c r="G25" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="60"/>
+      <c r="I25" s="57" t="s">
+        <v>79</v>
+      </c>
       <c r="J25" s="23"/>
       <c r="K25" s="42"/>
-      <c r="L25" s="44"/>
+      <c r="L25" s="56" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
     <mergeCell ref="B12:B17"/>
     <mergeCell ref="E12:E17"/>
     <mergeCell ref="D12:D17"/>
@@ -2825,17 +3021,6 @@
     <mergeCell ref="D18:D25"/>
     <mergeCell ref="E18:E25"/>
     <mergeCell ref="B18:B25"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K16:K25">
